--- a/data/接口测试用例.xlsx
+++ b/data/接口测试用例.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86138\PycharmProjects\apiTest\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF27B92-987B-4628-AEBA-41E053559CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
   <si>
     <t>case_id</t>
   </si>
@@ -133,19 +139,21 @@
   </si>
   <si>
     <t>充值金额包含非数字</t>
+  </si>
+  <si>
+    <t>输入未注册的手机号</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,151 +184,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -335,7 +205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,194 +215,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -555,251 +239,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -874,68 +316,24 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -951,13 +349,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信公众号：ITester小栈"/>
+        <xdr:cNvPr id="3" name="图片 2" descr="微信公众号：ITester小栈">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -978,7 +382,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -994,13 +398,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1021,7 +431,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1037,13 +447,19 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1344,33 +760,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.8416666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="20" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.35" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.7583333333333" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.4083333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.0583333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6916666666667" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.0166666666667" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17" style="1" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +816,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:10">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1420,7 +836,7 @@
       <c r="I2" s="8"/>
       <c r="J2"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:10">
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1440,7 +856,7 @@
       <c r="I3" s="16"/>
       <c r="J3"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:10">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1460,7 +876,7 @@
       <c r="I4" s="16"/>
       <c r="J4"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:10">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1480,7 +896,7 @@
       <c r="I5" s="16"/>
       <c r="J5"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:10">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1500,7 +916,7 @@
       <c r="I6" s="16"/>
       <c r="J6"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:10">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1520,7 +936,7 @@
       <c r="I7" s="16"/>
       <c r="J7"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:10">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1540,7 +956,7 @@
       <c r="I8" s="16"/>
       <c r="J8"/>
     </row>
-    <row r="9" ht="30" customHeight="1" spans="1:10">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1560,7 +976,7 @@
       <c r="I9" s="16"/>
       <c r="J9"/>
     </row>
-    <row r="10" ht="30" customHeight="1" spans="1:10">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1580,7 +996,7 @@
       <c r="I10" s="16"/>
       <c r="J10"/>
     </row>
-    <row r="11" ht="30" customHeight="1" spans="1:10">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1601,23 +1017,22 @@
       <c r="J11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -1626,11 +1041,11 @@
     <col min="5" max="5" width="16.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.1833333333333" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1659,7 +1074,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1678,7 +1093,7 @@
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1697,7 +1112,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1716,7 +1131,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1735,7 +1150,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1754,7 +1169,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1774,24 +1189,23 @@
       <c r="I7" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.775" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="20.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="27.875" style="1" customWidth="1"/>
@@ -1799,10 +1213,10 @@
     <col min="6" max="6" width="18.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5416666666667" style="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1844,13 +1258,15 @@
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" s="7"/>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
       <c r="I2" s="9"/>
     </row>
-    <row r="3" ht="30" customHeight="1" spans="1:9">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>2</v>
       </c>
@@ -1869,7 +1285,7 @@
       <c r="H3" s="17"/>
       <c r="I3" s="17"/>
     </row>
-    <row r="4" ht="30" customHeight="1" spans="1:9">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -1880,7 +1296,7 @@
         <v>30</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="15"/>
@@ -1888,7 +1304,7 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
     </row>
-    <row r="5" ht="30" customHeight="1" spans="1:9">
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>4</v>
       </c>
@@ -1907,7 +1323,7 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
     </row>
-    <row r="6" ht="30" customHeight="1" spans="1:9">
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>5</v>
       </c>
@@ -1926,7 +1342,7 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
     </row>
-    <row r="7" ht="30" customHeight="1" spans="1:9">
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -1945,7 +1361,7 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
     </row>
-    <row r="8" ht="30" customHeight="1" spans="1:9">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>7</v>
       </c>
@@ -1964,7 +1380,7 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="18"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
@@ -1974,8 +1390,9 @@
       <c r="G9" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/接口测试用例.xlsx
+++ b/data/接口测试用例.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\86138\PycharmProjects\apiTest\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAF27B92-987B-4628-AEBA-41E053559CC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>case_id</t>
   </si>
@@ -120,6 +114,9 @@
     <t>请求方式错误</t>
   </si>
   <si>
+    <t>post</t>
+  </si>
+  <si>
     <t>充值接口</t>
   </si>
   <si>
@@ -139,21 +136,19 @@
   </si>
   <si>
     <t>充值金额包含非数字</t>
-  </si>
-  <si>
-    <t>输入未注册的手机号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>post</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -184,13 +179,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,7 +338,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -215,8 +348,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -239,13 +558,255 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -264,12 +825,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -282,12 +837,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,167 +865,64 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>306705</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>219710</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>350520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="微信公众号：ITester小栈">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11111230" y="2592705"/>
-          <a:ext cx="1148080" cy="1186815"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>367665</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11504295" y="85725"/>
-          <a:ext cx="1546225" cy="1598295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>201295</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>130810</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>46990</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="微信公众号：ITester小栈">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12063730" y="201295"/>
-          <a:ext cx="1546225" cy="1598295"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -487,7 +933,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -760,19 +1206,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="8.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.875" style="1" customWidth="1"/>
@@ -786,7 +1232,7 @@
     <col min="10" max="10" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -816,7 +1262,7 @@
       </c>
       <c r="J1"/>
     </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="30" customHeight="1" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -829,210 +1275,210 @@
       <c r="D2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
       <c r="J2"/>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="21">
+    <row r="3" ht="30" customHeight="1" spans="1:10">
+      <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
       <c r="J3"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="21">
+    <row r="4" ht="30" customHeight="1" spans="1:10">
+      <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
       <c r="J4"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+    <row r="5" ht="30" customHeight="1" spans="1:10">
+      <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="21">
+    <row r="6" ht="30" customHeight="1" spans="1:10">
+      <c r="A6" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
       <c r="J6"/>
     </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+    <row r="7" ht="30" customHeight="1" spans="1:10">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
       <c r="J7"/>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+    <row r="8" ht="30" customHeight="1" spans="1:10">
+      <c r="A8" s="17">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
       <c r="J8"/>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="21">
+    <row r="9" ht="30" customHeight="1" spans="1:10">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
       <c r="J9"/>
     </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="21">
+    <row r="10" ht="30" customHeight="1" spans="1:10">
+      <c r="A10" s="17">
         <v>9</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="13" t="s">
+      <c r="D10" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
       <c r="J10"/>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21">
+    <row r="11" ht="30" customHeight="1" spans="1:10">
+      <c r="A11" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
       <c r="J11"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="12" style="1" customWidth="1"/>
@@ -1045,7 +1491,7 @@
     <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="30" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1074,7 +1520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="30" customHeight="1" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1087,123 +1533,123 @@
       <c r="D2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="E2" s="4"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:9">
+      <c r="A5" s="8">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:9">
+      <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="21">
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:9">
+      <c r="A7" s="17">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K7" sqref="N5 K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="13.625" style="1" customWidth="1"/>
@@ -1216,7 +1662,7 @@
     <col min="9" max="9" width="19.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" ht="18" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" ht="30" customHeight="1" spans="1:9">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1258,141 +1704,140 @@
       <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10">
+      <c r="E2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" ht="30" customHeight="1" spans="1:9">
+      <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10">
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" ht="30" customHeight="1" spans="1:9">
+      <c r="A4" s="8">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="B4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="C4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" ht="30" customHeight="1" spans="1:9">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" ht="30" customHeight="1" spans="1:9">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" ht="30" customHeight="1" spans="1:9">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" ht="30" customHeight="1" spans="1:9">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="10">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="10">
-        <v>5</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="10">
-        <v>6</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>